--- a/Dokumente/Auf_2021-11-18-DBEntwurf.xlsx
+++ b/Dokumente/Auf_2021-11-18-DBEntwurf.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="107">
   <si>
     <t xml:space="preserve">Erstellen Sie ein Datenbank-Tabelle, die Personendaten verspeichern soll.</t>
   </si>
@@ -54,7 +54,7 @@
     <t xml:space="preserve">Land</t>
   </si>
   <si>
-    <t xml:space="preserve">Telefon</t>
+    <t xml:space="preserve">Telefonnummer</t>
   </si>
   <si>
     <t xml:space="preserve">Email</t>
@@ -75,21 +75,305 @@
     <t xml:space="preserve">Österreich</t>
   </si>
   <si>
-    <t xml:space="preserve">43 789 456 123</t>
+    <t xml:space="preserve">(+)43 789 456 123</t>
   </si>
   <si>
     <t xml:space="preserve">max@muster.cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downing Street 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW1A 2AB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sa_Ra_21_11_23_10_26_34_978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sascha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He_Ne_21_11_23_10_26_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heiko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nekrep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neumayr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Char(25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strasse + Nr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int, integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix, 25 Zeichen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiener Strasse (VarChar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-8010 (Graz)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0316 7075 DW 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max_________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45  (?int)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-89532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03167075 =&gt; 3167075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45a 45/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VarChar(50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VarChar(?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Var = variable Länge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeichenfolgen/Strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">char(x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variabel bis zu x</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Smörebr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ød – Problematik</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">nVarChar(x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ö,ä japanisch!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zweck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eindeutigkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warum eindeutig?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weil Primary-Key (PK) nötig!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warum PK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK: muss Wert haben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK: eine Zeile jederzeit/genau zu finden!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK: kann/darf nur einmal vorhanden sein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warum genau finden?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB vielleicht in Mexiko?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatisch vom DB-System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI (Auto Increment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mySQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autowert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ms SQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Komma-Zahlen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decimal(5,2)  (-999.99 bis 999.99)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decimal(16,4) Euro-Werte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 oder 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">binary large object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byte-array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varBinary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data-DEFINITION-Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data-MANIPULITION-Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drop Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alter User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teileNr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artikelNr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schritt1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wert1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schritt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wert2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\Thh:mm:ss"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -120,9 +404,83 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5983B0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF127622"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF168253"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF168253"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3465A4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC9211E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -169,11 +527,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -182,11 +540,63 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -200,6 +610,66 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF127622"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF168253"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3465A4"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF5983B0"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -208,15 +678,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:J9"/>
+  <dimension ref="A2:J49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="2" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="21.43"/>
   </cols>
   <sheetData>
@@ -234,73 +712,375 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
+    <row r="7" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>33297</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>8992</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="8" t="n">
+        <v>33297.816087963</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>33297</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>8992</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>18</v>
+      <c r="C28" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="6"/>
+      <c r="C41" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="6"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="12" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J9" r:id="rId1" display="max@muster.cc"/>
+    <hyperlink ref="J8" r:id="rId1" display="max@muster.cc"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -317,14 +1097,73 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A2:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30.62"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -340,14 +1179,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B3:H3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
